--- a/medicine/Psychotrope/Alfred_Bardey/Alfred_Bardey.xlsx
+++ b/medicine/Psychotrope/Alfred_Bardey/Alfred_Bardey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xavier Alfred Bardey (Besançon, 24 septembre 1854-Vaux-les-Prés, 16 janvier 1934) est un négociant et explorateur français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père était négociant en soieries à Lyon où il passe sa jeunesse. Fondateur de sa propre société la Vianney, Bardey et compagnie, il se spécialise dans l’importation des produits venant des colonies. Il part ainsi en Arabie en 1880 pour s'approvisionner en café et arrive à Aden en mai. Il y est alors confronté à la concurrence britannique et décide d'aller au source même de la production, dans les hauts plateaux de l'Abyssinie.
 Après un court passage à Bombay, il est déposé à Zeila (juillet 1880) par un navire égyptien. Il gagne alors Harar en vingt-deux jours et est de retour sur la côte en octobre avec une importante cargaison de café.
@@ -546,7 +560,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Somal, Harar et pays des Gallas, carte au 1/2 500 000, 1883
 Traditions et divisions du Somal (pays des Somalis), Bulletin de la Société d'Anthropologie, 1884, p. 331-348
